--- a/practical_controlled/精化阶段/数据库设计/分配表/数据库表分配.xlsx
+++ b/practical_controlled/精化阶段/数据库设计/分配表/数据库表分配.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>姓名</t>
   </si>
@@ -57,6 +57,9 @@
     <t>manager_Info</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>字典信息表</t>
   </si>
   <si>
@@ -117,6 +120,12 @@
     <t>organization</t>
   </si>
   <si>
+    <t>红色字体为角色，放到一个表里</t>
+  </si>
+  <si>
+    <t>role_info</t>
+  </si>
+  <si>
     <t>评论</t>
   </si>
   <si>
@@ -187,6 +196,12 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>内容信息</t>
+  </si>
+  <si>
+    <t>content_info</t>
   </si>
   <si>
     <t>王敏泽</t>
@@ -328,10 +343,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,9 +357,166 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,142 +527,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -501,37 +537,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,145 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,9 +733,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,17 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +807,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -774,24 +828,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,141 +848,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1300,19 +1345,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1365,6 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1353,358 +1396,387 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:7">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
       <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
       <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
       <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
       <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E26" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="3:5">
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
       <c r="C35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="2" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="37" spans="3:5">
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
+      <c r="C37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="3:5">
       <c r="C41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="C43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="3:5">
       <c r="C44" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="3:5">
       <c r="C45" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="C46" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
